--- a/services/worker/demos/report/output/expenses/ytd/expenses-ytd.xlsx
+++ b/services/worker/demos/report/output/expenses/ytd/expenses-ytd.xlsx
@@ -17,7 +17,7 @@
     <t>דוח הוצאות - דוגמה בע"מ - Demo Business Ltd</t>
   </si>
   <si>
-    <t>תקופה: 2026-01-01 עד 2026-02-12</t>
+    <t>תקופה: 2026-01-01 עד 2026-02-13</t>
   </si>
   <si>
     <t>סה"כ לפי מטבע</t>
@@ -179,7 +179,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/EXP-006.pdf</t>
   </si>
   <si>
-    <t>2026-01-17</t>
+    <t>2026-01-18</t>
   </si>
   <si>
     <t>LinkedIn Premium</t>
@@ -191,7 +191,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/EXP-007.pdf</t>
   </si>
   <si>
-    <t>2026-01-20</t>
+    <t>2026-01-21</t>
   </si>
   <si>
     <t>בזק בינלאומי</t>
@@ -239,7 +239,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/EXP-011.pdf</t>
   </si>
   <si>
-    <t>2026-01-31</t>
+    <t>2026-02-01</t>
   </si>
   <si>
     <t>חניון חודשי</t>
@@ -251,7 +251,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/EXP-012.pdf</t>
   </si>
   <si>
-    <t>2026-02-03</t>
+    <t>2026-02-04</t>
   </si>
   <si>
     <t>Zoom Pro</t>
@@ -260,7 +260,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/EXP-013.pdf</t>
   </si>
   <si>
-    <t>2026-02-06</t>
+    <t>2026-02-07</t>
   </si>
   <si>
     <t>ביטוח לאומי</t>
@@ -272,7 +272,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/EXP-014.pdf</t>
   </si>
   <si>
-    <t>2026-02-09</t>
+    <t>2026-02-10</t>
   </si>
   <si>
     <t>ניקיון משרדים</t>
@@ -288,9 +288,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="₪#,##0.00"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
@@ -352,7 +349,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
